--- a/cp_1/results_for_bigrams_with_spaces_twosteps.xlsx
+++ b/cp_1/results_for_bigrams_with_spaces_twosteps.xlsx
@@ -424,281 +424,281 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>ир</t>
+          <t xml:space="preserve">о </t>
         </is>
       </c>
       <c r="B1" t="n">
-        <v>0.00074</v>
+        <v>0.01932</v>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>ну</t>
+          <t xml:space="preserve"> к</t>
         </is>
       </c>
       <c r="E1" t="n">
-        <v>0.0027</v>
+        <v>0.01069</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> п</t>
+          <t xml:space="preserve">р </t>
         </is>
       </c>
       <c r="H1" t="n">
-        <v>0.01337</v>
+        <v>0.00174</v>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>вк</t>
+          <t>фа</t>
         </is>
       </c>
       <c r="K1" t="n">
-        <v>0.00014</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> с</t>
+          <t>дм</t>
         </is>
       </c>
       <c r="N1" t="n">
-        <v>0.01436</v>
+        <v>3e-05</v>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>зг</t>
+          <t>цв</t>
         </is>
       </c>
       <c r="Q1" t="n">
-        <v>0.00036</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>на</t>
+          <t>ка</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01131</v>
+        <v>0.00767</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>кв</t>
+          <t xml:space="preserve"> а</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.00035</v>
+        <v>0.00298</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>жч</t>
+          <t>фр</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5e-05</v>
+        <v>0.0002</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>мь</t>
+          <t xml:space="preserve">з </t>
         </is>
       </c>
       <c r="K2" t="n">
-        <v>2e-05</v>
+        <v>0.00122</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>рл</t>
+          <t>уа</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>нт</t>
+          <t>яо</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.00069</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>дп</t>
+          <t>ко</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.00011</v>
+        <v>0.00685</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>мл</t>
+          <t>па</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.00025</v>
+        <v>0.00124</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>ст</t>
+          <t>бл</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.009090000000000001</v>
+        <v>0.00069</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>бм</t>
+          <t>эм</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>ее</t>
+          <t>рц</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>0.00118</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>еб</t>
+          <t>юг</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0.00096</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ог</t>
+          <t xml:space="preserve">е </t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00449</v>
+        <v>0.01552</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>ги</t>
+          <t>вл</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.00119</v>
+        <v>0.00116</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>го</t>
+          <t>иж</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.008829999999999999</v>
+        <v>0.00027</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>ед</t>
+          <t>иг</t>
         </is>
       </c>
       <c r="K4" t="n">
-        <v>0.00268</v>
+        <v>0.00099</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>гч</t>
+          <t>ьз</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1e-05</v>
+        <v>0.00022</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>лк</t>
+          <t>йа</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>0.00036</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>еж</t>
+          <t>же</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00076</v>
+        <v>0.00358</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>рт</t>
+          <t>оц</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0005</v>
+        <v>0.00018</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>фу</t>
+          <t>им</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00244</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ти</t>
+          <t xml:space="preserve"> ц</t>
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.00359</v>
+        <v>0.00028</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>нч</t>
+          <t>мс</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.00017</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>ыи</t>
+          <t>ао</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>дх</t>
+          <t>ст</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>тл</t>
+          <t xml:space="preserve"> е</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.0003</v>
+        <v>0.00408</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>зы</t>
+          <t>пе</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.00048</v>
+        <v>0.00187</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>мы</t>
+          <t>ью</t>
         </is>
       </c>
       <c r="K6" t="n">
@@ -706,515 +706,515 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> х</t>
+          <t>ют</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>0.00185</v>
+        <v>0.00022</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>уи</t>
+          <t>хе</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>1e-05</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>уе</t>
+          <t>ок</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>пл</t>
+          <t>ру</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.00104</v>
+        <v>0.00267</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ял</t>
+          <t>жн</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.00108</v>
+        <v>0.00092</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>въ</t>
+          <t>цу</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>1e-05</v>
+        <v>0.00026</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>ло</t>
+          <t>пт</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>0.00663</v>
+        <v>5e-05</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>уз</t>
+          <t>рф</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>0.00053</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ич</t>
+          <t>ое</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00123</v>
+        <v>0.00183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>яц</t>
+          <t>ку</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2e-05</v>
+        <v>0.00112</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>он</t>
+          <t>ха</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.00646</v>
+        <v>0.0014</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>со</t>
+          <t>ео</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.00177</v>
+        <v>0.00033</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>ют</t>
+          <t>вт</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>0.00023</v>
+        <v>0.00027</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>чш</t>
+          <t>шв</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>6e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ди</t>
+          <t xml:space="preserve"> н</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00233</v>
+        <v>0.01345</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>гу</t>
+          <t>ав</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>0.00062</v>
+        <v>0.00379</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>дз</t>
+          <t>вш</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1e-05</v>
+        <v>0.00103</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>кд</t>
+          <t>фу</t>
         </is>
       </c>
       <c r="K9" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>чо</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>3e-05</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>ьч</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>5e-05</v>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>ет</t>
+          <t>бч</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>0.00407</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>вм</t>
+          <t>ап</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00058</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>щн</t>
+          <t>ив</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3e-05</v>
+        <v>0.00259</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>зт</t>
+          <t>ег</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1e-05</v>
+        <v>0.00344</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>зв</t>
+          <t>нк</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>0.00072</v>
+        <v>0.00049</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>цв</t>
+          <t>мк</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>5e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>яа</t>
+          <t>вв</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>1e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>хъ</t>
+          <t>ад</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1e-05</v>
+        <v>0.00183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> в</t>
+          <t>ою</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>0.01307</v>
+        <v>0.00096</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>юм</t>
+          <t>шл</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t xml:space="preserve">ы </t>
+          <t>нд</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.00496</v>
+        <v>0.00053</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>ех</t>
+          <t xml:space="preserve"> щ</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>0.00081</v>
+        <v>4e-05</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>ми</t>
+          <t>нз</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>0.00244</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ща</t>
+          <t>ен</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00051</v>
+        <v>0.00658</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>зж</t>
+          <t>уш</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00053</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>мр</t>
+          <t>ял</t>
         </is>
       </c>
       <c r="H12" t="n">
+        <v>0.00108</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>зв</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
+        <v>0.00072</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>жо</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>3e-05</v>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>лу</t>
-        </is>
-      </c>
-      <c r="K12" t="n">
-        <v>0.00095</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>ем</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>0.00322</v>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>чк</t>
+          <t>нш</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>0.00018</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">б </t>
+          <t>ие</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.00019</v>
+        <v>0.00248</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>еи</t>
+          <t>ну</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>0.00011</v>
+        <v>0.00293</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ав</t>
+          <t>ее</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.00369</v>
+        <v>0.0012</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>мм</t>
+          <t>вз</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>1e-05</v>
+        <v>0.00035</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>ещ</t>
+          <t>ьо</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>0.00076</v>
+        <v>6e-05</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>зл</t>
+          <t>съ</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>аж</t>
+          <t xml:space="preserve"> о</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.00118</v>
+        <v>0.0123</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>гд</t>
+          <t>си</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>0.00102</v>
+        <v>0.00224</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>сц</t>
+          <t>ыл</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00186</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>шу</t>
+          <t>яд</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>0.0003</v>
+        <v>0.00069</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>юд</t>
+          <t>нл</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>0.00019</v>
+        <v>0.00025</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>ъю</t>
+          <t>дд</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>5e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>фс</t>
+          <t>тв</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1e-05</v>
+        <v>0.00205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> о</t>
+          <t>яю</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>0.01447</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>ын</t>
+          <t>пп</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.00054</v>
+        <v>0.00019</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>вг</t>
+          <t>лк</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>1e-05</v>
+        <v>0.00036</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>ва</t>
+          <t xml:space="preserve">э </t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>0.00524</v>
+        <v>3e-05</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>иф</t>
+          <t>тм</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ьи</t>
+          <t>еч</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.00012</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>нм</t>
+          <t>щу</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>бб</t>
+          <t>гр</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.00011</v>
+        <v>0.00198</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>фа</t>
+          <t>яе</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>0.0006400000000000001</v>
+        <v>6e-05</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>цк</t>
+          <t>як</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>4e-05</v>
+        <v>0.00013</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>жь</t>
+          <t>вб</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1224,73 +1224,73 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ае</t>
+          <t>ал</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0009300000000000001</v>
+        <v>0.0078</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>ея</t>
+          <t>лы</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.00028</v>
+        <v>0.00126</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>зз</t>
+          <t>ип</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>5e-05</v>
+        <v>0.0003</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>ыс</t>
+          <t>дя</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>0.00043</v>
+        <v>0.00073</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>жу</t>
+          <t xml:space="preserve"> ю</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>0.00014</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>лы</t>
+          <t>мм</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>0.00126</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>бж</t>
+          <t>ис</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1e-05</v>
+        <v>0.00239</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>ак</t>
+          <t xml:space="preserve"> у</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.00452</v>
+        <v>0.00459</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t xml:space="preserve">ч </t>
+          <t xml:space="preserve">п </t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1298,1515 +1298,1515 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>мг</t>
+          <t>кл</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>2e-05</v>
+        <v>0.00054</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>юс</t>
+          <t>пс</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>0.00011</v>
+        <v>1e-05</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>яя</t>
+          <t>нб</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>яч</t>
+          <t>ль</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6e-05</v>
+        <v>0.00342</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>дъ</t>
+          <t>се</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00302</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>фи</t>
+          <t>бы</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.00054</v>
+        <v>0.00321</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>йе</t>
+          <t>лж</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>1e-05</v>
+        <v>0.00031</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>нс</t>
+          <t>фэ</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>0.00028</v>
+        <v>1e-05</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t xml:space="preserve">т </t>
+          <t>нм</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>0.00468</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ьм</t>
+          <t>см</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00111</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>ве</t>
+          <t>лс</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.00467</v>
+        <v>0.00139</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>но</t>
+          <t>гд</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.00808</v>
+        <v>0.00102</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>лж</t>
+          <t>тн</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>0.00031</v>
+        <v>0.00122</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>ре</t>
+          <t>эр</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>0.00481</v>
+        <v>1e-05</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>еп</t>
+          <t>рз</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>0.00053</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ъе</t>
+          <t>ут</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0001</v>
+        <v>0.00099</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>ап</t>
+          <t xml:space="preserve">я </t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>0.00055</v>
+        <v>0.01261</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>ёт</t>
+          <t>уп</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00035</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>сы</t>
+          <t>лч</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>0.00046</v>
+        <v>0.00024</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>тх</t>
+          <t>юм</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>1e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>ви</t>
+          <t>хс</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>0.00333</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ым</t>
+          <t>яс</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.00104</v>
+        <v>0.0008</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>ое</t>
+          <t>ан</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>0.00183</v>
+        <v>0.00499</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>ац</t>
+          <t>яв</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>ро</t>
+          <t>ык</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>0.00586</v>
+        <v>0.00024</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>ме</t>
+          <t>тц</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>0.00306</v>
+        <v>0.00029</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>рб</t>
+          <t>щн</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>0.00024</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>нг</t>
+          <t xml:space="preserve">ь </t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.00019</v>
+        <v>0.01111</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>са</t>
+          <t>еж</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>0.00087</v>
+        <v>0.00098</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>жк</t>
+          <t>оч</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.00011</v>
+        <v>0.00136</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>пк</t>
+          <t>зг</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>5e-05</v>
+        <v>0.00036</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>юн</t>
+          <t>гн</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>5e-05</v>
+        <v>0.00023</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>йд</t>
+          <t>мт</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>0.00022</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ию</t>
+          <t>та</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.00035</v>
+        <v>0.0047</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>гл</t>
+          <t>жи</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.00136</v>
+        <v>0.00117</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>тц</t>
+          <t>зо</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.00029</v>
+        <v>0.00028</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>кр</t>
+          <t>рь</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>0.00164</v>
+        <v>0.00051</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>аф</t>
+          <t>рб</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>0.00124</v>
+        <v>0.00024</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>ео</t>
+          <t>тз</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>0.00029</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">ф </t>
+          <t xml:space="preserve">ю </t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.00031</v>
+        <v>0.00415</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>юч</t>
+          <t>ье</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>0.00012</v>
+        <v>0.0018</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>не</t>
+          <t>кр</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.007860000000000001</v>
+        <v>0.00169</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>шк</t>
+          <t>ач</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0.00043</v>
+        <v>0.0005</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>ие</t>
+          <t>зт</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>0.00249</v>
+        <v>1e-05</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>ай</t>
+          <t>тб</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>0.0015</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ин</t>
+          <t>вс</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.00383</v>
+        <v>0.00303</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>яй</t>
+          <t>сп</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3e-05</v>
+        <v>0.00201</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>бк</t>
+          <t>пи</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.00041</v>
+        <v>0.00035</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>сч</t>
+          <t>дь</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>0.0003</v>
+        <v>0.00061</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>це</t>
+          <t>цк</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>0.0009300000000000001</v>
+        <v>4e-05</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>ыр</t>
+          <t>рм</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>0.00038</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>тз</t>
+          <t>тр</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1e-05</v>
+        <v>0.00251</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>йи</t>
+          <t>га</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1e-05</v>
+        <v>0.00117</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>еш</t>
+          <t>ез</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.00077</v>
+        <v>0.00108</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>сп</t>
+          <t>дв</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>0.00199</v>
+        <v>0.00095</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t xml:space="preserve"> щ</t>
+          <t>хл</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>5e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>йк</t>
+          <t>зч</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>5e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>вс</t>
+          <t>ей</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.00263</v>
+        <v>0.00206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>гс</t>
+          <t>за</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3e-05</v>
+        <v>0.00596</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>ищ</t>
+          <t xml:space="preserve">ф </t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>3e-05</v>
+        <v>0.00033</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>зн</t>
+          <t>ух</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0.00177</v>
+        <v>0.00032</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ж</t>
+          <t>пч</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>0.00187</v>
+        <v>1e-05</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>шм</t>
+          <t xml:space="preserve"> й</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>эт</t>
+          <t xml:space="preserve"> в</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.00196</v>
+        <v>0.01518</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>ох</t>
+          <t xml:space="preserve">л </t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.00053</v>
+        <v>0.00611</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>тж</t>
+          <t>чш</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1e-05</v>
+        <v>6e-05</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>ез</t>
+          <t>юб</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>0.00108</v>
+        <v>0.00034</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>тд</t>
+          <t>жб</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>0.0001</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>бщ</t>
+          <t>ыо</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>0.00017</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>иа</t>
+          <t>ош</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00026</v>
+        <v>0.00109</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>мф</t>
+          <t>ме</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1e-05</v>
+        <v>0.00309</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>рщ</t>
+          <t>бе</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.0001</v>
+        <v>0.0023</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>хс</t>
+          <t>лл</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>1e-05</v>
+        <v>0.00018</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>рг</t>
+          <t>дк</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>0.00029</v>
+        <v>0.00013</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>ри</t>
+          <t>уи</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>0.00566</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>рц</t>
+          <t>ед</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00268</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>ни</t>
+          <t>ня</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.0071</v>
+        <v>0.00495</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>мк</t>
+          <t>ьн</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00108</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>да</t>
+          <t>яц</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>0.00329</v>
+        <v>2e-05</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>ёр</t>
+          <t>сц</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>1e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>ер</t>
+          <t>зъ</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>0.00648</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>юи</t>
+          <t>ши</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1e-05</v>
+        <v>0.00145</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>рш</t>
+          <t>ло</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.00032</v>
+        <v>0.00663</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>ен</t>
+          <t>иш</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.00667</v>
+        <v>0.00042</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>ся</t>
+          <t>ио</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>0.00265</v>
+        <v>0.00016</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>дц</t>
+          <t>йл</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>0.00016</v>
+        <v>0.00072</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>вл</t>
+          <t>йв</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>0.00108</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>иь</t>
+          <t xml:space="preserve">й </t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1e-05</v>
+        <v>0.00685</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>рр</t>
+          <t>са</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1e-05</v>
+        <v>0.0008899999999999999</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>пь</t>
+          <t>пу</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4e-05</v>
+        <v>0.0005</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>йн</t>
+          <t>ех</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>0.00077</v>
+        <v>0.00081</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>дь</t>
+          <t>йд</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>0.00061</v>
+        <v>0.00023</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>ья</t>
+          <t>юж</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>0.00045</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>оц</t>
+          <t>кн</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.00018</v>
+        <v>0.00345</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>юь</t>
+          <t>от</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1e-05</v>
+        <v>0.00654</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>аш</t>
+          <t>бу</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.00079</v>
+        <v>0.00156</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>ха</t>
+          <t>ею</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>0.0014</v>
+        <v>0.00043</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>уя</t>
+          <t>дъ</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>5e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>нк</t>
+          <t>зц</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>0.00048</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ду</t>
+          <t>яз</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0014</v>
+        <v>0.00199</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>тк</t>
+          <t>зз</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.00034</v>
+        <v>5e-05</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>му</t>
+          <t>нь</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.00199</v>
+        <v>0.00142</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>зь</t>
+          <t>аф</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>0.0014</v>
+        <v>0.00125</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>вв</t>
+          <t>сг</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t xml:space="preserve">ж </t>
+          <t>фс</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>0.00025</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>мп</t>
+          <t xml:space="preserve">в </t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.00012</v>
+        <v>0.00474</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>юо</t>
+          <t>ич</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1e-05</v>
+        <v>0.00123</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>бг</t>
+          <t>ын</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1e-05</v>
+        <v>0.00051</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>ле</t>
+          <t>ьт</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>0.00287</v>
+        <v>0.00011</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t xml:space="preserve">п </t>
+          <t>уо</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>4e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t xml:space="preserve">н </t>
+          <t>аа</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>0.00404</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>хм</t>
+          <t>пр</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1e-05</v>
+        <v>0.00617</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>хи</t>
+          <t>ия</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.00011</v>
+        <v>0.00142</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>яб</t>
+          <t>жд</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1e-05</v>
+        <v>0.00067</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>ят</t>
+          <t>шу</t>
         </is>
       </c>
       <c r="K37" t="n">
-        <v>0.00152</v>
+        <v>0.0003</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>ор</t>
+          <t>вх</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>0.00585</v>
+        <v>3e-05</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>чн</t>
+          <t>юп</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>0.00047</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>ыд</t>
+          <t>ид</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1e-05</v>
+        <v>0.00183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>хе</t>
+          <t>ча</t>
         </is>
       </c>
       <c r="E38" t="n">
+        <v>0.00211</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>мь</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2e-05</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>рщ</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>нп</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
         <v>6e-05</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>ьщ</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>мя</t>
-        </is>
-      </c>
-      <c r="K38" t="n">
-        <v>0.00051</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>ск</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>0.00452</v>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>ры</t>
+          <t>бд</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>0.00117</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>цо</t>
+          <t>во</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00045</v>
+        <v>0.00615</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>ун</t>
+          <t>вн</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.00026</v>
+        <v>0.00195</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ю</t>
+          <t xml:space="preserve"> х</t>
         </is>
       </c>
       <c r="H39" t="n">
+        <v>0.00179</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">б </t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>0.00022</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>ац</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
         <v>6.999999999999999e-05</v>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>ыб</t>
-        </is>
-      </c>
-      <c r="K39" t="n">
-        <v>0.00101</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>ив</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>0.00259</v>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>ты</t>
+          <t>кж</t>
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>0.00149</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">о </t>
+          <t>рн</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01929</v>
+        <v>0.00076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>лг</t>
+          <t>еш</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.00015</v>
+        <v>0.00077</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>йм</t>
+          <t>чк</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>4e-05</v>
+        <v>0.00018</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>чт</t>
+          <t xml:space="preserve">ц </t>
         </is>
       </c>
       <c r="K40" t="n">
-        <v>0.00299</v>
+        <v>0.00033</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>об</t>
+          <t>ьп</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>0.00334</v>
+        <v>1e-05</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>йт</t>
+          <t>ёр</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>0.00061</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">г </t>
+          <t>ом</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00077</v>
+        <v>0.00423</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>рм</t>
+          <t>ож</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>5e-05</v>
+        <v>0.00164</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>лп</t>
+          <t>ые</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3e-05</v>
+        <v>0.00058</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>еч</t>
+          <t>уб</t>
         </is>
       </c>
       <c r="K41" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00061</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t xml:space="preserve"> д</t>
+          <t>яб</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>0.00602</v>
+        <v>1e-05</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t xml:space="preserve">ь </t>
+          <t>йб</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>0.01113</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>су</t>
+          <t xml:space="preserve"> ш</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.00035</v>
+        <v>0.00078</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>ус</t>
+          <t xml:space="preserve"> б</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00656</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>яю</t>
+          <t>ря</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00077</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>ча</t>
+          <t>юд</t>
         </is>
       </c>
       <c r="K42" t="n">
-        <v>0.00211</v>
+        <v>0.00019</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>ую</t>
+          <t>юч</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>0.00107</v>
+        <v>0.00012</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t xml:space="preserve">у </t>
+          <t>шп</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>0.00598</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ау</t>
+          <t>ит</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>6e-05</v>
+        <v>0.00387</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>йс</t>
+          <t>ыт</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0.00049</v>
+        <v>0.00041</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>зс</t>
+          <t>ещ</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00078</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>юл</t>
+          <t>ец</t>
         </is>
       </c>
       <c r="K43" t="n">
-        <v>4e-05</v>
+        <v>0.00026</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>кс</t>
+          <t>лг</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4e-05</v>
+        <v>0.00015</v>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t xml:space="preserve">р </t>
+          <t>юх</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>0.00171</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>дм</t>
+          <t xml:space="preserve"> м</t>
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0.00719</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>ог</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.00455</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>хо</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>0.00271</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>мч</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>бъ</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
         <v>3e-05</v>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>сс</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>0.00058</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> г</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>юх</t>
-        </is>
-      </c>
-      <c r="K44" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>ны</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>0.00295</v>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>еа</t>
+          <t>шт</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>5e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ой</t>
+          <t>ун</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.00378</v>
+        <v>0.00021</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>пе</t>
+          <t>да</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.00161</v>
+        <v>0.00349</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>мч</t>
+          <t>об</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1e-05</v>
+        <v>0.00337</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>жо</t>
+          <t>сч</t>
         </is>
       </c>
       <c r="K45" t="n">
-        <v>1e-05</v>
+        <v>0.0003</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>см</t>
+          <t>рш</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>0.00109</v>
+        <v>0.00032</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>лю</t>
+          <t>ьщ</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>0.00067</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ы</t>
+          <t>ди</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.00049</v>
+        <v>0.00233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>бя</t>
+          <t>ае</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>0.00029</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>гк</t>
+          <t xml:space="preserve"> ж</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.00012</v>
+        <v>0.00169</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>ад</t>
+          <t>яж</t>
         </is>
       </c>
       <c r="K46" t="n">
-        <v>0.00182</v>
+        <v>0.00054</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>иш</t>
+          <t>лп</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>0.00042</v>
+        <v>3e-05</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>яж</t>
+          <t>юш</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>0.00054</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>вч</t>
+          <t>ре</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1e-05</v>
+        <v>0.00484</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>кг</t>
+          <t>шь</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>ко</t>
+          <t>уч</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.00674</v>
+        <v>0.00058</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>дб</t>
+          <t>йн</t>
         </is>
       </c>
       <c r="K47" t="n">
-        <v>3e-05</v>
+        <v>0.0007</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>оу</t>
+          <t>мл</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4e-05</v>
+        <v>0.00019</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>тв</t>
+          <t>бж</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>0.00204</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>аг</t>
+          <t xml:space="preserve"> ч</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.00076</v>
+        <v>0.00479</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>ов</t>
+          <t xml:space="preserve"> р</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>0.0076</v>
+        <v>0.00377</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">х </t>
+          <t>еп</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.00261</v>
+        <v>0.00056</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ат</t>
+          <t>ъю</t>
         </is>
       </c>
       <c r="K48" t="n">
-        <v>0.00464</v>
+        <v>5e-05</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>чо</t>
+          <t>дч</t>
         </is>
       </c>
       <c r="N48" t="n">
@@ -2814,1171 +2814,1115 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>ру</t>
+          <t>бш</t>
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>0.00263</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>тм</t>
+          <t>ул</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2e-05</v>
+        <v>0.0021</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>ий</t>
+          <t>аз</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>0.00121</v>
+        <v>0.00451</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>шь</t>
+          <t>цо</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.00032</v>
+        <v>0.00045</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>ге</t>
+          <t>ук</t>
         </is>
       </c>
       <c r="K49" t="n">
-        <v>0.00032</v>
+        <v>0.00061</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>жм</t>
+          <t>бх</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>1e-05</v>
+        <v>0.00015</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t xml:space="preserve">к </t>
+          <t>въ</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>0.00494</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ту</t>
+          <t xml:space="preserve">х </t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.00075</v>
+        <v>0.00264</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>еу</t>
+          <t>ат</t>
         </is>
       </c>
       <c r="E50" t="n">
+        <v>0.00465</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>ющ</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>0.00025</v>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>иб</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
+        <v>0.00068</v>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>пк</t>
+        </is>
+      </c>
+      <c r="N50" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>гм</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>6e-05</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>яг</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>0.00056</v>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>вб</t>
-        </is>
-      </c>
-      <c r="K50" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>пр</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>0.00602</v>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>гн</t>
-        </is>
-      </c>
-      <c r="Q50" t="n">
-        <v>0.00023</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ье</t>
+          <t>ба</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.0018</v>
+        <v>0.00129</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>рд</t>
+          <t>ьс</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.00019</v>
+        <v>0.00068</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>ук</t>
+          <t xml:space="preserve">г </t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00079</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>тщ</t>
+          <t>зу</t>
         </is>
       </c>
       <c r="K51" t="n">
-        <v>1e-05</v>
+        <v>0.00038</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>яе</t>
+          <t>оу</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>6.999999999999999e-05</v>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>юц</t>
-        </is>
-      </c>
-      <c r="Q51" t="n">
-        <v>5e-05</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>пу</t>
+          <t>шм</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.00048</v>
+        <v>3e-05</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>ум</t>
+          <t>мя</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>0.00112</v>
+        <v>0.0005</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>фл</t>
+          <t>ои</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1e-05</v>
+        <v>0.00091</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>сш</t>
+          <t>рп</t>
         </is>
       </c>
       <c r="K52" t="n">
-        <v>2e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ч</t>
+          <t>сю</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>0.00453</v>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>бы</t>
-        </is>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.0032</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>тр</t>
+          <t>ак</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00248</v>
+        <v>0.00459</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>нп</t>
+          <t>че</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>6e-05</v>
+        <v>0.00308</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>ыт</t>
+          <t>сж</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>0.00042</v>
+        <v>3e-05</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>зд</t>
+          <t xml:space="preserve">ё </t>
         </is>
       </c>
       <c r="K53" t="n">
-        <v>0.00068</v>
+        <v>0.0006400000000000001</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>ож</t>
+          <t xml:space="preserve"> ы</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>0.00164</v>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>пя</t>
-        </is>
-      </c>
-      <c r="Q53" t="n">
-        <v>0.00057</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>съ</t>
+          <t>ах</t>
         </is>
       </c>
       <c r="B54" t="n">
+        <v>0.00079</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ув</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0.00047</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>зь</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0.0014</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>яр</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>3e-05</v>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>ба</t>
-        </is>
-      </c>
-      <c r="E54" t="n">
-        <v>0.00129</v>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> к</t>
-        </is>
-      </c>
-      <c r="H54" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>шл</t>
-        </is>
-      </c>
-      <c r="K54" t="n">
-        <v>0.0006400000000000001</v>
-      </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>йь</t>
+          <t>бм</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>ыч</t>
-        </is>
-      </c>
-      <c r="Q54" t="n">
-        <v>0.00012</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ше</t>
+          <t xml:space="preserve"> п</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.00175</v>
+        <v>0.01562</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ис</t>
+          <t>ла</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>0.00232</v>
+        <v>0.00974</v>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>хв</t>
+          <t>кт</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00055</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>вт</t>
+          <t>сш</t>
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0.00027</v>
+        <v>2e-05</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>нд</t>
+          <t>мг</t>
         </is>
       </c>
       <c r="N55" t="n">
-        <v>0.00053</v>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>ьш</t>
-        </is>
-      </c>
-      <c r="Q55" t="n">
-        <v>0.0004</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve"> е</t>
+          <t>ри</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.0053</v>
+        <v>0.00566</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>бу</t>
+          <t>сь</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>0.00152</v>
+        <v>0.00306</v>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>вш</t>
+          <t>еи</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>0.00103</v>
+        <v>0.00012</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>чь</t>
+          <t>зр</t>
         </is>
       </c>
       <c r="K56" t="n">
-        <v>0.00015</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>ые</t>
+          <t>дц</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>0.00058</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>вд</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.00017</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>оп</t>
+          <t xml:space="preserve"> з</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.00111</v>
+        <v>0.00438</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>зч</t>
+          <t>ер</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>3e-05</v>
+        <v>0.00647</v>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>йч</t>
+          <t>ыв</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00102</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>зк</t>
+          <t>эл</t>
         </is>
       </c>
       <c r="K57" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00013</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t xml:space="preserve">д </t>
+          <t>фф</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>0.00051</v>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>дд</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>нз</t>
+          <t>ве</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1e-05</v>
+        <v>0.00495</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>нб</t>
+          <t>юс</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>зу</t>
+          <t>иа</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>0.00038</v>
+        <v>0.00025</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>зю</t>
+          <t>вм</t>
         </is>
       </c>
       <c r="K58" t="n">
-        <v>0.00014</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>те</t>
+          <t>кд</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>0.0049</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ек</t>
+          <t>зд</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.00102</v>
+        <v>0.00074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>за</t>
+          <t>дн</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>0.00591</v>
+        <v>0.00188</v>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>дж</t>
+          <t>сд</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>1e-05</v>
+        <v>0.00034</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>се</t>
+          <t>иф</t>
         </is>
       </c>
       <c r="K59" t="n">
-        <v>0.00295</v>
+        <v>1e-05</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t xml:space="preserve">с </t>
+          <t>фы</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>0.00299</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>цу</t>
+          <t xml:space="preserve"> с</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.00026</v>
+        <v>0.01459</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ид</t>
+          <t>ик</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>0.00181</v>
+        <v>0.0017</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>юр</t>
+          <t>бщ</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>3e-05</v>
+        <v>0.00017</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>ел</t>
+          <t>бв</t>
         </is>
       </c>
       <c r="K60" t="n">
-        <v>0.00544</v>
+        <v>2e-05</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>рх</t>
+          <t>рк</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>0.00017</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ыг</t>
+          <t>тл</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.00015</v>
+        <v>0.00029</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>ль</t>
+          <t>нг</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>0.00341</v>
+        <v>0.0002</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t xml:space="preserve">ю </t>
+          <t>лю</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>0.00414</v>
+        <v>0.00069</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>ик</t>
+          <t>яг</t>
         </is>
       </c>
       <c r="K61" t="n">
-        <v>0.00167</v>
+        <v>0.00056</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>яд</t>
+          <t>лт</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>0.00069</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>яс</t>
+          <t>ым</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.00081</v>
+        <v>0.00104</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>бд</t>
+          <t>йс</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1e-05</v>
+        <v>0.00049</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>мс</t>
+          <t>эн</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>дт</t>
+          <t>дш</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.00036</v>
+        <v>0.00016</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>лл</t>
+          <t>яп</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>0.00018</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>пч</t>
+          <t>ыр</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1e-05</v>
+        <v>0.00038</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>зр</t>
+          <t>ны</t>
         </is>
       </c>
       <c r="E63" t="n">
+        <v>0.00297</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>ту</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>0.00078</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>зж</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>9.000000000000001e-05</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">з </t>
-        </is>
-      </c>
-      <c r="H63" t="n">
-        <v>0.00119</v>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>аа</t>
-        </is>
-      </c>
-      <c r="K63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>оа</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
         <v>4e-05</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>бь</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>5e-05</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>шп</t>
+          <t>аж</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1e-05</v>
+        <v>0.00118</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>дш</t>
+          <t>нч</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>0.00016</v>
+        <v>0.00017</v>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>лф</t>
+          <t>зи</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>1e-05</v>
+        <v>0.00048</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>уп</t>
+          <t>шо</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0.00032</v>
+        <v>0.00041</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>дв</t>
+          <t>зс</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>0.00087</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>их</t>
+          <t xml:space="preserve">м </t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.00169</v>
+        <v>0.00633</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>бв</t>
+          <t>по</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>2e-05</v>
+        <v>0.00795</v>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>хо</t>
+          <t>тк</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>0.00259</v>
+        <v>0.00034</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>пт</t>
+          <t>бб</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>5e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>уй</t>
+          <t>юо</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>0.00019</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>та</t>
+          <t>пл</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.00457</v>
+        <v>0.00104</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>ощ</t>
+          <t>ть</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>0.00558</v>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>эг</t>
+          <t>рж</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>2e-05</v>
+        <v>0.00035</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>ли</t>
+          <t>ги</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0.00584</v>
+        <v>0.00119</v>
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>аб</t>
+          <t>зю</t>
         </is>
       </c>
       <c r="N66" t="n">
-        <v>0.00061</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>дн</t>
+          <t>ос</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00189</v>
+        <v>0.00577</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>эл</t>
+          <t>ам</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00243</v>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>лд</t>
+          <t>ыб</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>1e-05</v>
+        <v>0.001</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>ам</t>
+          <t>ып</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0.00242</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="M67" t="inlineStr">
         <is>
-          <t>вз</t>
+          <t>яф</t>
         </is>
       </c>
       <c r="N67" t="n">
-        <v>0.00035</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ыл</t>
+          <t>го</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.00186</v>
+        <v>0.008970000000000001</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>нн</t>
+          <t>до</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>0.00413</v>
+        <v>0.00354</v>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>ыж</t>
+          <t>ша</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>1e-05</v>
+        <v>0.00115</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>цы</t>
+          <t>ты</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00157</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>лт</t>
+          <t>оф</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>2e-05</v>
+        <v>0.00018</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  </t>
+          <t xml:space="preserve"> л</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.01593</v>
+        <v>0.00196</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>ьц</t>
+          <t>чь</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>0.00022</v>
+        <v>0.00015</v>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>ям</t>
+          <t>оя</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.00032</v>
+        <v>0.00067</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>ыв</t>
+          <t>тх</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0.00102</v>
+        <v>1e-05</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>фр</t>
+          <t>ху</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>0.00018</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">й </t>
+          <t>иц</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.00684</v>
+        <v>0.00153</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>тъ</t>
+          <t xml:space="preserve">т </t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1e-05</v>
+        <v>0.0047</v>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>тч</t>
+          <t>тя</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.0002</v>
+        <v>0.0005</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>зо</t>
+          <t>яя</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0.00028</v>
+        <v>0.00019</v>
       </c>
       <c r="M70" t="inlineStr">
         <is>
-          <t>би</t>
+          <t>дж</t>
         </is>
       </c>
       <c r="N70" t="n">
-        <v>0.00055</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>жи</t>
+          <t xml:space="preserve">а </t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.00117</v>
+        <v>0.02093</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>тя</t>
+          <t>зе</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>0.0005</v>
+        <v>0.00013</v>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>бл</t>
+          <t>тж</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.00068</v>
+        <v>1e-05</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>уб</t>
+          <t>ях</t>
         </is>
       </c>
       <c r="K71" t="n">
-        <v>0.00061</v>
+        <v>0.00013</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>ъя</t>
+          <t>нр</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>4e-05</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ху</t>
+          <t>он</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.00014</v>
+        <v>0.00765</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>ас</t>
+          <t>ум</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>0.0048</v>
+        <v>0.00112</v>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t xml:space="preserve"> и</t>
+          <t>рт</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.01105</v>
+        <v>0.00049</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>зш</t>
+          <t>дх</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>1e-05</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>вр</t>
+          <t>йш</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>0.00032</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>юш</t>
+          <t xml:space="preserve"> г</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>6e-05</v>
+        <v>0.0053</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>ма</t>
+          <t>чт</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>0.00218</v>
+        <v>0.00323</v>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>ар</t>
+          <t>ых</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.0019</v>
+        <v>0.00076</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t xml:space="preserve">ц </t>
+          <t>гч</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0.00031</v>
+        <v>1e-05</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>ух</t>
+          <t>аи</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>0.00033</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>яз</t>
+          <t>ов</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.00199</v>
+        <v>0.0076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>яо</t>
+          <t>шн</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1e-05</v>
+        <v>0.00028</v>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>юю</t>
+          <t>ян</t>
         </is>
       </c>
       <c r="H74" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00069</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>уж</t>
+          <t>рх</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0.00143</v>
+        <v>0.00017</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>юу</t>
+          <t>фл</t>
         </is>
       </c>
       <c r="N74" t="n">
@@ -3988,127 +3932,127 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>дк</t>
+          <t>ор</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.00013</v>
+        <v>0.00585</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>йа</t>
+          <t>ий</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1e-05</v>
+        <v>0.00121</v>
       </c>
       <c r="G75" t="inlineStr">
         <is>
+          <t>ля</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0.00131</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
           <t>хн</t>
         </is>
       </c>
-      <c r="H75" t="n">
+      <c r="K75" t="n">
         <v>0.00011</v>
       </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>тё</t>
-        </is>
-      </c>
-      <c r="K75" t="n">
-        <v>1e-05</v>
-      </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>йл</t>
+          <t>ьа</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>0.00073</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>кк</t>
+          <t>ил</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1e-05</v>
+        <v>0.00555</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>яь</t>
+          <t>ни</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>2e-05</v>
+        <v>0.00729</v>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>эм</t>
+          <t>це</t>
         </is>
       </c>
       <c r="H76" t="n">
-        <v>2e-05</v>
+        <v>0.00094</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>чр</t>
+          <t>юю</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>1e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>тю</t>
+          <t>чл</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ьб</t>
+          <t>то</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>4e-05</v>
+        <v>0.0122</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>ит</t>
+          <t xml:space="preserve">к </t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>0.00387</v>
+        <v>0.00502</v>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>рв</t>
+          <t>пы</t>
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.00024</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>юз</t>
+          <t>ущ</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>1e-05</v>
+        <v>0.00016</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>ущ</t>
+          <t>лф</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>0.00016</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="78">
@@ -4118,271 +4062,271 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.00171</v>
+        <v>0.00181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>вь</t>
+          <t xml:space="preserve">н </t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>0.00023</v>
+        <v>0.00406</v>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve">и </t>
+          <t>бр</t>
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.01533</v>
+        <v>0.00116</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
+          <t>гк</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
           <t>тп</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="N78" t="n">
         <v>6.999999999999999e-05</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>ьн</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>0.00114</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>рк</t>
+          <t>ыс</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00044</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>йо</t>
+          <t>эт</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>1e-05</v>
+        <v>0.00219</v>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>лх</t>
+          <t>чу</t>
         </is>
       </c>
       <c r="H79" t="n">
-        <v>1e-05</v>
+        <v>0.00033</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>ес</t>
+          <t>ящ</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0.00354</v>
+        <v>0.00016</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>ьс</t>
+          <t>тщ</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>0.00068</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ьк</t>
+          <t>нн</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.00107</v>
+        <v>0.00411</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>бч</t>
+          <t>фе</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>сг</t>
+          <t>су</t>
         </is>
       </c>
       <c r="H80" t="n">
-        <v>1e-05</v>
+        <v>0.00035</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>рж</t>
+          <t>йм</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.00035</v>
+        <v>5e-05</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>оч</t>
+          <t>лд</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>0.00128</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>пы</t>
+          <t xml:space="preserve"> ф</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00044</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>фы</t>
+          <t>йе</t>
         </is>
       </c>
       <c r="E81" t="n">
+        <v>1e-05</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>дс</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>0.00031</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>дт</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.00036</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>эг</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
         <v>3e-05</v>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>чу</t>
-        </is>
-      </c>
-      <c r="H81" t="n">
-        <v>0.00033</v>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t xml:space="preserve">м </t>
-        </is>
-      </c>
-      <c r="K81" t="n">
-        <v>0.00631</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>дл</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>0.00085</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>нр</t>
+          <t>ра</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.00016</v>
+        <v>0.00827</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>иж</t>
+          <t>рв</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>0.00027</v>
+        <v>0.00024</v>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>ьв</t>
+          <t>ай</t>
         </is>
       </c>
       <c r="H82" t="n">
-        <v>1e-05</v>
+        <v>0.0015</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>вн</t>
+          <t>юл</t>
         </is>
       </c>
       <c r="K82" t="n">
-        <v>0.00195</v>
+        <v>4e-05</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>уа</t>
+          <t>хв</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>2e-05</v>
+        <v>8.000000000000001e-05</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>пп</t>
+          <t>нц</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.00019</v>
+        <v>0.00021</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>вя</t>
+          <t>ки</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>0.00012</v>
+        <v>0.00203</v>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>пн</t>
+          <t>ир</t>
         </is>
       </c>
       <c r="H83" t="n">
+        <v>0.00073</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>яй</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>3e-05</v>
       </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>ый</t>
-        </is>
-      </c>
-      <c r="K83" t="n">
-        <v>0.00121</v>
-      </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>мт</t>
+          <t>юн</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>2e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ян</t>
+          <t>уз</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.00074</v>
+        <v>0.00053</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>ыо</t>
+          <t>вя</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>1e-05</v>
+        <v>0.00012</v>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>ях</t>
+          <t xml:space="preserve">ш </t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -4390,57 +4334,57 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>по</t>
+          <t>ур</t>
         </is>
       </c>
       <c r="K84" t="n">
-        <v>0.00764</v>
+        <v>0.00052</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>бр</t>
+          <t>гс</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>0.00116</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>гр</t>
+          <t>ск</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.00179</v>
+        <v>0.00462</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>де</t>
+          <t>тс</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>0.00418</v>
+        <v>0.0007</v>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>ьд</t>
+          <t>лн</t>
         </is>
       </c>
       <c r="H85" t="n">
-        <v>3e-05</v>
+        <v>0.00023</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>ол</t>
+          <t>ащ</t>
         </is>
       </c>
       <c r="K85" t="n">
-        <v>0.00547</v>
+        <v>0.0002</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>бъ</t>
+          <t>мр</t>
         </is>
       </c>
       <c r="N85" t="n">
@@ -4450,325 +4394,325 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>жб</t>
+          <t xml:space="preserve"> я</t>
         </is>
       </c>
       <c r="B86" t="n">
+        <v>0.00217</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>сн</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0.00058</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>юц</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>5e-05</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ьм</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>9.000000000000001e-05</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>дп</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
         <v>8.000000000000001e-05</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>уд</t>
-        </is>
-      </c>
-      <c r="E86" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>аы</t>
-        </is>
-      </c>
-      <c r="H86" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>до</t>
-        </is>
-      </c>
-      <c r="K86" t="n">
-        <v>0.00322</v>
-      </c>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>ош</t>
-        </is>
-      </c>
-      <c r="N86" t="n">
-        <v>0.00109</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>уо</t>
+          <t>зы</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>6e-05</v>
+        <v>0.00048</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>аи</t>
+          <t>ес</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>5e-05</v>
+        <v>0.00355</v>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>дс</t>
+          <t>ая</t>
         </is>
       </c>
       <c r="H87" t="n">
-        <v>0.00031</v>
+        <v>0.00358</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>зи</t>
+          <t>кв</t>
         </is>
       </c>
       <c r="K87" t="n">
-        <v>0.00048</v>
+        <v>0.00035</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>ня</t>
+          <t>тё</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>0.00495</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>кл</t>
+          <t>ке</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.00052</v>
+        <v>0.00038</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve"> т</t>
+          <t>мо</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>0.0063</v>
+        <v>0.00413</v>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>зц</t>
+          <t>би</t>
         </is>
       </c>
       <c r="H88" t="n">
-        <v>1e-05</v>
+        <v>0.00055</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>ио</t>
+          <t>цы</t>
         </is>
       </c>
       <c r="K88" t="n">
-        <v>0.00018</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>ра</t>
+          <t>йп</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>0.00817</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ос</t>
+          <t>ро</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.00571</v>
+        <v>0.00613</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>ьо</t>
+          <t>ый</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>0.00121</v>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>оз</t>
+          <t>йц</t>
         </is>
       </c>
       <c r="H89" t="n">
-        <v>0.00072</v>
+        <v>3e-05</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>бо</t>
+          <t>зш</t>
         </is>
       </c>
       <c r="K89" t="n">
-        <v>0.00136</v>
+        <v>1e-05</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>бн</t>
+          <t>бь</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>0.00037</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>вы</t>
+          <t>не</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.00289</v>
+        <v>0.00825</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>ще</t>
+          <t>аб</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>0.0009700000000000001</v>
+        <v>0.00063</v>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>ьу</t>
+          <t>зл</t>
         </is>
       </c>
       <c r="H90" t="n">
-        <v>1e-05</v>
+        <v>0.0001</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>ык</t>
+          <t>пь</t>
         </is>
       </c>
       <c r="K90" t="n">
-        <v>0.00023</v>
+        <v>0.0013</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>сх</t>
+          <t>ыг</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>0.00011</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>хл</t>
+          <t xml:space="preserve"> т</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00614</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>сл</t>
+          <t>ге</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>0.00209</v>
+        <v>0.00035</v>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t xml:space="preserve"> у</t>
+          <t>ея</t>
         </is>
       </c>
       <c r="H91" t="n">
-        <v>0.00495</v>
+        <v>0.00028</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>сж</t>
+          <t>жч</t>
         </is>
       </c>
       <c r="K91" t="n">
-        <v>3e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>хр</t>
+          <t>ыи</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>па</t>
+          <t>ол</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0007</v>
+        <v>0.00557</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>дя</t>
+          <t>лу</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>0.00074</v>
+        <v>0.00096</v>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>аз</t>
+          <t>вь</t>
         </is>
       </c>
       <c r="H92" t="n">
-        <v>0.00457</v>
+        <v>0.00023</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t xml:space="preserve"> н</t>
+          <t>рл</t>
         </is>
       </c>
       <c r="K92" t="n">
-        <v>0.01503</v>
+        <v>1e-05</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>рс</t>
+          <t>ьд</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>0.00015</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>од</t>
+          <t>ьк</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0046</v>
+        <v>0.00114</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>иб</t>
+          <t>кк</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>0.00067</v>
+        <v>1e-05</v>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>кж</t>
+          <t>ят</t>
         </is>
       </c>
       <c r="H93" t="n">
-        <v>1e-05</v>
+        <v>0.00152</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>сю</t>
+          <t>зк</t>
         </is>
       </c>
       <c r="K93" t="n">
@@ -4776,553 +4720,553 @@
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>сн</t>
+          <t>еа</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>0.00057</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">а </t>
+          <t>ли</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.02073</v>
+        <v>0.00588</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>зп</t>
+          <t>ьш</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>3e-05</v>
+        <v>0.0004</v>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t xml:space="preserve"> а</t>
+          <t>гл</t>
         </is>
       </c>
       <c r="H94" t="n">
-        <v>0.00328</v>
+        <v>0.00153</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>ци</t>
+          <t>ыш</t>
         </is>
       </c>
       <c r="K94" t="n">
-        <v>0.00031</v>
+        <v>0.00052</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>оа</t>
+          <t>ьч</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4e-05</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">щ </t>
+          <t xml:space="preserve">и </t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>2e-05</v>
+        <v>0.01573</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>ип</t>
+          <t>ья</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>0.00012</v>
+        <v>0.00045</v>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>жд</t>
+          <t>рч</t>
         </is>
       </c>
       <c r="H95" t="n">
-        <v>0.00066</v>
+        <v>0.00014</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t xml:space="preserve">е </t>
+          <t>зм</t>
         </is>
       </c>
       <c r="K95" t="n">
-        <v>0.01552</v>
+        <v>0.00018</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>ля</t>
+          <t>бг</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>0.00131</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>тг</t>
+          <t>ду</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>1e-05</v>
+        <v>0.00141</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>оы</t>
+          <t>ии</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>1e-05</v>
+        <v>0.00037</v>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>ып</t>
+          <t>кс</t>
         </is>
       </c>
       <c r="H96" t="n">
-        <v>9.000000000000001e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>ых</t>
+          <t>йк</t>
         </is>
       </c>
       <c r="K96" t="n">
-        <v>0.00076</v>
+        <v>0.00011</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>ша</t>
+          <t>фи</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>0.00115</v>
+        <v>0.00054</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ок</t>
+          <t>ма</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.00176</v>
+        <v>0.00221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>ке</t>
+          <t>ет</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>0.00038</v>
+        <v>0.00407</v>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t xml:space="preserve">ш </t>
+          <t>ищ</t>
         </is>
       </c>
       <c r="H97" t="n">
-        <v>0.0001</v>
+        <v>3e-05</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>мо</t>
+          <t>еу</t>
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0.00353</v>
+        <v>6e-05</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>ащ</t>
+          <t>сб</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>0.0002</v>
+        <v>4e-05</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ьз</t>
+          <t>аш</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.00021</v>
+        <v>0.00079</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>жа</t>
+          <t>ас</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>0.00152</v>
+        <v>0.00479</v>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>еы</t>
+          <t>ню</t>
         </is>
       </c>
       <c r="H98" t="n">
-        <v>1e-05</v>
+        <v>0.00014</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>ей</t>
+          <t>аг</t>
         </is>
       </c>
       <c r="K98" t="n">
-        <v>0.00205</v>
+        <v>0.00076</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>рп</t>
+          <t>ьг</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5e-05</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>ьа</t>
+          <t>де</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>2e-05</v>
+        <v>0.00421</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>ии</t>
+          <t>мн</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>0.00035</v>
+        <v>0.00145</v>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>ла</t>
+          <t>мы</t>
         </is>
       </c>
       <c r="H99" t="n">
-        <v>0.00974</v>
+        <v>0.00045</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>нщ</t>
+          <t>ьи</t>
         </is>
       </c>
       <c r="K99" t="n">
-        <v>0.00022</v>
+        <v>0.00012</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>ач</t>
+          <t>хм</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>0.0005</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ия</t>
+          <t>ды</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.00141</v>
+        <v>0.0005</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>мн</t>
+          <t>сл</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>0.00136</v>
+        <v>0.0021</v>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>жс</t>
+          <t>ьц</t>
         </is>
       </c>
       <c r="H100" t="n">
-        <v>1e-05</v>
+        <v>0.00022</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>ющ</t>
+          <t>тд</t>
         </is>
       </c>
       <c r="K100" t="n">
-        <v>0.00026</v>
+        <v>0.0001</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>во</t>
+          <t>вг</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>0.00579</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ящ</t>
+          <t xml:space="preserve"> и</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.00016</v>
+        <v>0.01055</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>оя</t>
+          <t>вы</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>0.00067</v>
+        <v>0.00315</v>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>нь</t>
+          <t>гу</t>
         </is>
       </c>
       <c r="H101" t="n">
-        <v>0.00142</v>
+        <v>0.00062</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>ув</t>
+          <t>щь</t>
         </is>
       </c>
       <c r="K101" t="n">
-        <v>0.00044</v>
+        <v>3e-05</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>шн</t>
+          <t>дз</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>0.00028</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>лч</t>
+          <t>ем</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.00025</v>
+        <v>0.00326</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ды</t>
+          <t>ще</t>
         </is>
       </c>
       <c r="E102" t="n">
-        <v>0.0005</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>яр</t>
+          <t>оо</t>
         </is>
       </c>
       <c r="H102" t="n">
-        <v>2e-05</v>
+        <v>0.00021</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>як</t>
+          <t>яи</t>
         </is>
       </c>
       <c r="K102" t="n">
-        <v>4e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>ву</t>
+          <t>тъ</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>0.0006400000000000001</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>гв</t>
+          <t>ти</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00359</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>си</t>
+          <t>оз</t>
         </is>
       </c>
       <c r="E103" t="n">
-        <v>0.00219</v>
+        <v>0.00073</v>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>бе</t>
+          <t>мп</t>
         </is>
       </c>
       <c r="H103" t="n">
-        <v>0.00213</v>
+        <v>0.00012</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>фф</t>
+          <t>рс</t>
         </is>
       </c>
       <c r="K103" t="n">
-        <v>1e-05</v>
+        <v>0.00015</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>ьг</t>
+          <t>жь</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>0.00013</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>лс</t>
+          <t>хи</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.00139</v>
+        <v>0.00011</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>ря</t>
+          <t>еб</t>
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.00078</v>
+        <v>0.00096</v>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>нл</t>
+          <t>дл</t>
         </is>
       </c>
       <c r="H104" t="n">
-        <v>0.00026</v>
+        <v>0.00087</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
+          <t>ыч</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>0.00012</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
           <t>фо</t>
         </is>
       </c>
-      <c r="K104" t="n">
+      <c r="N104" t="n">
         <v>3e-05</v>
-      </c>
-      <c r="M104" t="inlineStr">
-        <is>
-          <t>юе</t>
-        </is>
-      </c>
-      <c r="N104" t="n">
-        <v>1e-05</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
+          <t>ми</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.00318</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>щи</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>бя</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>0.00029</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
           <t>ср</t>
         </is>
       </c>
-      <c r="B105" t="n">
-        <v>6e-05</v>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>ев</t>
-        </is>
-      </c>
-      <c r="E105" t="n">
-        <v>0.00115</v>
-      </c>
-      <c r="G105" t="inlineStr">
-        <is>
-          <t>эн</t>
-        </is>
-      </c>
-      <c r="H105" t="n">
-        <v>5e-05</v>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>ку</t>
-        </is>
-      </c>
       <c r="K105" t="n">
-        <v>0.001</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>уш</t>
+          <t>ьв</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>0.00053</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>бш</t>
+          <t>ви</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1e-05</v>
+        <v>0.00348</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>иг</t>
+          <t>ща</t>
         </is>
       </c>
       <c r="E106" t="n">
-        <v>0.00096</v>
+        <v>0.0005</v>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>нц</t>
+          <t>сё</t>
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.00021</v>
+        <v>0.00073</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t xml:space="preserve"> э</t>
+          <t>жк</t>
         </is>
       </c>
       <c r="K106" t="n">
-        <v>0.00212</v>
+        <v>0.00012</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>йц</t>
+          <t>йг</t>
         </is>
       </c>
       <c r="N106" t="n">
@@ -5332,207 +5276,207 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>сб</t>
+          <t>те</t>
         </is>
       </c>
       <c r="B107" t="n">
+        <v>0.00496</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>жа</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0.00152</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>уд</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0.00172</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>вк</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>0.00014</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">щ </t>
+        </is>
+      </c>
+      <c r="N107" t="n">
         <v>3e-05</v>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ё </t>
-        </is>
-      </c>
-      <c r="E107" t="n">
-        <v>0.0006400000000000001</v>
-      </c>
-      <c r="G107" t="inlineStr">
-        <is>
-          <t>йб</t>
-        </is>
-      </c>
-      <c r="H107" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>йв</t>
-        </is>
-      </c>
-      <c r="K107" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M107" t="inlineStr">
-        <is>
-          <t>ьт</t>
-        </is>
-      </c>
-      <c r="N107" t="n">
-        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>иц</t>
+          <t>ин</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.00153</v>
+        <v>0.00384</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>дч</t>
+          <t>сы</t>
         </is>
       </c>
       <c r="E108" t="n">
-        <v>1e-05</v>
+        <v>0.00048</v>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>ою</t>
+          <t xml:space="preserve">ж </t>
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.00096</v>
+        <v>0.00027</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>яп</t>
+          <t>зб</t>
         </is>
       </c>
       <c r="K108" t="n">
-        <v>3e-05</v>
+        <v>0.00018</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>ои</t>
+          <t>уе</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>0.0008899999999999999</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>тб</t>
+          <t>на</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1e-05</v>
+        <v>0.01187</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>юб</t>
+          <t xml:space="preserve"> э</t>
         </is>
       </c>
       <c r="E109" t="n">
-        <v>0.00034</v>
+        <v>0.00247</v>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>уь</t>
+          <t>ъя</t>
         </is>
       </c>
       <c r="H109" t="n">
-        <v>1e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>бс</t>
+          <t>жс</t>
         </is>
       </c>
       <c r="K109" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>1e-05</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>чл</t>
+          <t>вц</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ью</t>
+          <t>ци</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>0.00036</v>
+        <v>0.00032</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>еь</t>
+          <t>нт</t>
         </is>
       </c>
       <c r="E110" t="n">
-        <v>2e-05</v>
+        <v>0.00069</v>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>др</t>
+          <t>вр</t>
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.00154</v>
+        <v>0.00032</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>ши</t>
+          <t>ца</t>
         </is>
       </c>
       <c r="K110" t="n">
-        <v>0.00144</v>
+        <v>0.00099</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>щь</t>
+          <t>дю</t>
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3e-05</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ыз</t>
+          <t>ям</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00032</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>лн</t>
+          <t>их</t>
         </is>
       </c>
       <c r="E111" t="n">
-        <v>0.00023</v>
+        <v>0.00174</v>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>фе</t>
+          <t>оп</t>
         </is>
       </c>
       <c r="H111" t="n">
-        <v>2e-05</v>
+        <v>0.00113</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>ан</t>
+          <t>ъе</t>
         </is>
       </c>
       <c r="K111" t="n">
-        <v>0.0032</v>
+        <v>0.0001</v>
       </c>
       <c r="M111" t="inlineStr">
         <is>
-          <t>нш</t>
+          <t>фн</t>
         </is>
       </c>
       <c r="N111" t="n">
@@ -5542,715 +5486,715 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>яв</t>
+          <t>ры</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>0.00013</v>
+        <v>0.00117</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve"> р</t>
+          <t>рю</t>
         </is>
       </c>
       <c r="E112" t="n">
-        <v>0.0038</v>
+        <v>0.00028</v>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>вц</t>
+          <t>рд</t>
         </is>
       </c>
       <c r="H112" t="n">
-        <v>1e-05</v>
+        <v>0.00019</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>кт</t>
+          <t>хъ</t>
         </is>
       </c>
       <c r="K112" t="n">
-        <v>0.00053</v>
+        <v>1e-05</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>ец</t>
+          <t>бс</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>0.00026</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>зя</t>
+          <t>св</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>0.00068</v>
+        <v>0.00152</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve"> я</t>
+          <t>хр</t>
         </is>
       </c>
       <c r="E113" t="n">
-        <v>0.00129</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>же</t>
+          <t>рг</t>
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.00358</v>
+        <v>0.00029</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>йр</t>
+          <t>уя</t>
         </is>
       </c>
       <c r="K113" t="n">
-        <v>1e-05</v>
+        <v>5e-05</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>жж</t>
+          <t>юр</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>тн</t>
+          <t>ой</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.00123</v>
+        <v>0.00377</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ь</t>
+          <t>ва</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>0.0012</v>
+        <v>0.00592</v>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>ул</t>
+          <t>ау</t>
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.00216</v>
+        <v>5e-05</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>то</t>
+          <t>пн</t>
         </is>
       </c>
       <c r="K114" t="n">
-        <v>0.01192</v>
+        <v>3e-05</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t xml:space="preserve"> м</t>
+          <t>вч</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>0.00577</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>щи</t>
+          <t xml:space="preserve">ы </t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.00496</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>ут</t>
+          <t xml:space="preserve">с </t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>0.00102</v>
+        <v>0.00305</v>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>вх</t>
+          <t>гв</t>
         </is>
       </c>
       <c r="H115" t="n">
-        <v>3e-05</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>тс</t>
+          <t>яч</t>
         </is>
       </c>
       <c r="K115" t="n">
-        <v>0.00071</v>
+        <v>6.999999999999999e-05</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>рч</t>
+          <t>юи</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>0.00014</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>щу</t>
+          <t>со</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>5e-05</v>
+        <v>0.00197</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>юк</t>
+          <t>бо</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1e-05</v>
+        <v>0.00215</v>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t xml:space="preserve"> л</t>
+          <t>ую</t>
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.00208</v>
+        <v>0.00107</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>ть</t>
+          <t>юв</t>
         </is>
       </c>
       <c r="K116" t="n">
-        <v>0.00559</v>
+        <v>3e-05</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>оо</t>
+          <t>дб</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>0.00018</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ур</t>
+          <t>ар</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.00052</v>
+        <v>0.00192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>оф</t>
+          <t>зн</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>0.00012</v>
+        <v>0.00184</v>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>зб</t>
+          <t>ьб</t>
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.00018</v>
+        <v>5e-05</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>ца</t>
+          <t>вп</t>
         </is>
       </c>
       <c r="K117" t="n">
-        <v>0.00099</v>
+        <v>0.00013</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t xml:space="preserve"> й</t>
+          <t>тт</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>1e-05</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>яи</t>
+          <t>ев</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>2e-05</v>
+        <v>0.00122</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>рз</t>
+          <t>аю</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1e-05</v>
+        <v>0.00096</v>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>рь</t>
+          <t>вд</t>
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.00051</v>
+        <v>0.0002</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>уг</t>
+          <t>нщ</t>
         </is>
       </c>
       <c r="K118" t="n">
-        <v>0.00106</v>
+        <v>0.00022</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>ал</t>
+          <t>жм</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>0.00779</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ил</t>
+          <t>ше</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>0.00554</v>
+        <v>0.00184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t xml:space="preserve">в </t>
+          <t>уж</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>0.00458</v>
+        <v>0.00147</v>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>аю</t>
+          <t>бк</t>
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.00096</v>
+        <v>0.00041</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>ею</t>
+          <t>ох</t>
         </is>
       </c>
       <c r="K119" t="n">
-        <v>0.00043</v>
+        <v>0.00053</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>ах</t>
+          <t>хг</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>0.00063</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>кю</t>
+          <t>му</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2e-05</v>
+        <v>0.00201</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>ая</t>
+          <t>др</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>0.00358</v>
+        <v>0.0016</v>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>сф</t>
+          <t>шк</t>
         </is>
       </c>
       <c r="H120" t="n">
-        <v>1e-05</v>
+        <v>0.00043</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>ки</t>
+          <t xml:space="preserve">ч </t>
         </is>
       </c>
       <c r="K120" t="n">
-        <v>0.00188</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t xml:space="preserve">л </t>
+          <t>тю</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>0.00609</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>че</t>
+          <t>ся</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>0.00302</v>
+        <v>0.00264</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>св</t>
+          <t>уг</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>0.00151</v>
+        <v>0.00113</v>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>шо</t>
+          <t xml:space="preserve">д </t>
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.00041</v>
+        <v>0.00054</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>уч</t>
+          <t>бн</t>
         </is>
       </c>
       <c r="K121" t="n">
-        <v>0.00058</v>
+        <v>0.00037</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>кн</t>
+          <t>сф</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>0.00287</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">я </t>
+          <t xml:space="preserve"> д</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.01178</v>
+        <v>0.00649</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>ао</t>
+          <t>уй</t>
         </is>
       </c>
       <c r="E122" t="n">
+        <v>0.00019</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>чн</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>0.00047</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>тч</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>зп</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
         <v>3e-05</v>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> ф</t>
-        </is>
-      </c>
-      <c r="H122" t="n">
-        <v>0.00041</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>зъ</t>
-        </is>
-      </c>
-      <c r="K122" t="n">
-        <v>1e-05</v>
-      </c>
-      <c r="M122" t="inlineStr">
-        <is>
-          <t>жн</t>
-        </is>
-      </c>
-      <c r="N122" t="n">
-        <v>0.00092</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ыш</t>
+          <t>чи</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>0.00052</v>
+        <v>0.0013</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>бх</t>
+          <t>ву</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>0.00015</v>
+        <v>0.00065</v>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>сё</t>
+          <t>зя</t>
         </is>
       </c>
       <c r="H123" t="n">
-        <v>0.00073</v>
+        <v>0.00068</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>юж</t>
+          <t>кю</t>
         </is>
       </c>
       <c r="K123" t="n">
-        <v>1e-05</v>
+        <v>2e-05</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
-          <t>им</t>
+          <t>тг</t>
         </is>
       </c>
       <c r="N123" t="n">
-        <v>0.00242</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>дю</t>
+          <t>но</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.00012</v>
+        <v>0.00844</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>шт</t>
+          <t>йт</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>1e-05</v>
+        <v>0.00062</v>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>от</t>
+          <t>ус</t>
         </is>
       </c>
       <c r="H124" t="n">
-        <v>0.00651</v>
+        <v>0.00103</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>йш</t>
+          <t>сх</t>
         </is>
       </c>
       <c r="K124" t="n">
-        <v>4e-05</v>
+        <v>0.00011</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>шв</t>
+          <t>ыд</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2e-05</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>вп</t>
+          <t>ел</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.0001</v>
+        <v>0.00544</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ц</t>
+          <t>жу</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>0.00026</v>
+        <v>0.00014</v>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>рн</t>
+          <t>йч</t>
         </is>
       </c>
       <c r="H125" t="n">
-        <v>0.00077</v>
+        <v>8.000000000000001e-05</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>рф</t>
+          <t>юк</t>
         </is>
       </c>
       <c r="K125" t="n">
-        <v>1e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>чи</t>
+          <t>жю</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>0.0013</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>тт</t>
+          <t>ек</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>6.999999999999999e-05</v>
+        <v>0.00106</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>пи</t>
+          <t>сс</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>0.00034</v>
+        <v>0.00058</v>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>зм</t>
+          <t>пя</t>
         </is>
       </c>
       <c r="H126" t="n">
-        <v>0.00018</v>
+        <v>0.00057</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>зе</t>
+          <t>юз</t>
         </is>
       </c>
       <c r="K126" t="n">
-        <v>0.00013</v>
+        <v>1e-05</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t xml:space="preserve"> б</t>
+          <t>ыж</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>0.00558</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ка</t>
+          <t xml:space="preserve">у </t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>0.00727</v>
+        <v>0.00608</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>ом</t>
+          <t>ию</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>0.00424</v>
+        <v>0.00035</v>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>сь</t>
+          <t>нс</t>
         </is>
       </c>
       <c r="H127" t="n">
-        <v>0.00307</v>
+        <v>0.00028</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t xml:space="preserve"> з</t>
+          <t>ощ</t>
         </is>
       </c>
       <c r="K127" t="n">
-        <v>0.00422</v>
+        <v>9.000000000000001e-05</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
-          <t>сд</t>
+          <t>ёт</t>
         </is>
       </c>
       <c r="N127" t="n">
-        <v>0.00034</v>
+        <v>9.000000000000001e-05</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>рю</t>
+          <t>од</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0.00028</v>
+        <v>0.00467</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t xml:space="preserve"> ш</t>
+          <t>ле</t>
         </is>
       </c>
       <c r="E128" t="n">
-        <v>0.00065</v>
+        <v>0.00299</v>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>га</t>
+          <t>чр</t>
         </is>
       </c>
       <c r="H128" t="n">
-        <v>0.00114</v>
+        <v>1e-05</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>ег</t>
+          <t>мф</t>
         </is>
       </c>
       <c r="K128" t="n">
-        <v>0.00342</v>
+        <v>1e-05</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>ню</t>
+          <t>ыз</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>0.00014</v>
+        <v>6.999999999999999e-05</v>
       </c>
     </row>
   </sheetData>
